--- a/data/trans_bre/P19-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,59%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,51; 21,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 13,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 12,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 14,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,09; 96,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,4; 48,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 33,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,46; 63,38</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 11,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 8,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 12,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,48; 9,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 45,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 32,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,26; 38,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,7; 35,25</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,25%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 12,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 13,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 12,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,83; 16,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,48; 51,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,52; 57,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,66; 50,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,65; 69,2</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,22%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,5; 16,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 11,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 11,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,89; 16,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,64; 69,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 49,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 40,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,65; 73,44</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,83%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 11,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 12,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 10,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 13,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 51,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,57; 71,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; 42,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,29; 57,33</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,99%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 4,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 10,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 10,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,2; 0,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,52; 28,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,5; 90,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,36; 70,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,27; 0,89</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,01%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,14; 8,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,25; 7,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,11; 7,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 6,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,76; 35,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,91; 32,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,24; 28,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 27,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>15,17%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 14,12</t>
+          <t>-6,8; 15,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 63,38</t>
+          <t>-19,74; 66,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>-3,74%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 9,34</t>
+          <t>-13,29; 7,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 35,25</t>
+          <t>-38,27; 25,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>11,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>40,73%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 16,66</t>
+          <t>6,14; 17,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,65; 69,2</t>
+          <t>19,46; 69,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>17,39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>81,06%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 16,56</t>
+          <t>6,53; 34,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,65; 73,44</t>
+          <t>21,23; 288,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>32,52%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 13,37</t>
+          <t>3,74; 13,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,29; 57,33</t>
+          <t>12,54; 56,35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-9,59</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>48,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>51,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-16,99%</t>
+          <t>-35,92%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 4,37</t>
+          <t>-5,88; 6,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,14</t>
+          <t>1,99; 15,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 10,53</t>
+          <t>3,71; 16,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 0,21</t>
+          <t>-22,6; 0,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 28,38</t>
+          <t>-22,72; 39,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,5; 90,31</t>
+          <t>7,47; 104,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,36; 70,67</t>
+          <t>14,76; 103,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,27; 0,89</t>
+          <t>-76,59; 2,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>-6,85%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-5,58; 6,66</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 8,79</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 9,84</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 3,07</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-34,16; 66,32</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-12,42; 143,15</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; 92,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-30,02; 26,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6,47</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5,48</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,14; 8,52</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,25; 7,72</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3,11; 7,8</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 6,67</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 10,03</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>15,76; 35,79</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>12,91; 32,72</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>10,24; 28,23</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,52; 27,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 47,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P19-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,51; 21,44</t>
+          <t>9,1; 20,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 13,61</t>
+          <t>0,64; 13,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 12,01</t>
+          <t>-0,98; 12,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 15,08</t>
+          <t>-6,85; 14,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,09; 96,35</t>
+          <t>32,23; 91,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 48,67</t>
+          <t>1,67; 51,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 33,98</t>
+          <t>-3,22; 35,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 66,07</t>
+          <t>-20,4; 64,62</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 11,34</t>
+          <t>1,38; 11,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 8,76</t>
+          <t>-1,75; 9,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 12,72</t>
+          <t>2,15; 12,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 7,17</t>
+          <t>-12,6; 7,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 45,74</t>
+          <t>4,17; 45,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 32,33</t>
+          <t>-5,54; 33,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 38,84</t>
+          <t>5,75; 41,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 25,26</t>
+          <t>-36,78; 26,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 12,07</t>
+          <t>2,33; 12,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 13,38</t>
+          <t>3,91; 13,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 12,9</t>
+          <t>2,13; 13,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 17,08</t>
+          <t>5,69; 16,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 51,95</t>
+          <t>8,99; 53,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 57,43</t>
+          <t>13,2; 58,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,66; 50,2</t>
+          <t>7,11; 50,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,46; 69,93</t>
+          <t>18,37; 66,07</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 16,39</t>
+          <t>4,45; 15,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 11,56</t>
+          <t>0,5; 11,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 11,2</t>
+          <t>0,79; 11,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 34,13</t>
+          <t>6,93; 35,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 69,0</t>
+          <t>16,06; 63,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 49,27</t>
+          <t>1,87; 48,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 40,79</t>
+          <t>1,36; 42,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,23; 288,62</t>
+          <t>23,93; 374,57</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 11,4</t>
+          <t>-0,51; 11,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,42</t>
+          <t>0,68; 12,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 10,08</t>
+          <t>-2,2; 10,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 13,34</t>
+          <t>4,03; 13,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 51,39</t>
+          <t>-1,96; 53,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 71,29</t>
+          <t>2,83; 70,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 42,22</t>
+          <t>-7,92; 41,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,54; 56,35</t>
+          <t>14,1; 58,19</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 6,62</t>
+          <t>-5,56; 6,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 15,19</t>
+          <t>1,32; 14,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 16,93</t>
+          <t>2,59; 16,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 0,52</t>
+          <t>-21,14; 0,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 39,72</t>
+          <t>-22,66; 38,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 104,53</t>
+          <t>6,19; 101,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,76; 103,61</t>
+          <t>13,13; 100,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,59; 2,58</t>
+          <t>-72,44; 2,57</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 6,66</t>
+          <t>-5,26; 6,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,79</t>
+          <t>-1,3; 9,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 9,84</t>
+          <t>-1,6; 9,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 3,07</t>
+          <t>-5,66; 2,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 66,32</t>
+          <t>-32,17; 65,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 143,15</t>
+          <t>-10,69; 154,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 92,89</t>
+          <t>-10,91; 82,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 26,38</t>
+          <t>-30,31; 24,66</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,52</t>
+          <t>4,39; 8,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,72</t>
+          <t>3,34; 8,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,8</t>
+          <t>3,17; 7,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,03</t>
+          <t>-0,15; 10,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,76; 35,79</t>
+          <t>17,09; 35,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,91; 32,72</t>
+          <t>12,85; 34,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,24; 28,23</t>
+          <t>10,38; 28,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 47,5</t>
+          <t>0,62; 49,22</t>
         </is>
       </c>
     </row>
